--- a/julia/Resolve_MILP/all_instances_result_milp_Zkt.xlsx
+++ b/julia/Resolve_MILP/all_instances_result_milp_Zkt.xlsx
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.0186</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0268</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0163</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>0.0198</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0093</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0041</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -717,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="F10">
-        <v>0.0299</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.0291</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <v>0.0774</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -777,7 +777,7 @@
         <v>878</v>
       </c>
       <c r="F13">
-        <v>0.2667</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="F14">
-        <v>0.1119</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.0571</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
         <v>453</v>
       </c>
       <c r="F16">
-        <v>0.1547</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -857,7 +857,7 @@
         <v>285</v>
       </c>
       <c r="F17">
-        <v>0.1688</v>
+        <v>0.1712</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -877,7 +877,7 @@
         <v>372</v>
       </c>
       <c r="F18">
-        <v>0.1532</v>
+        <v>0.1562</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -897,7 +897,7 @@
         <v>1216</v>
       </c>
       <c r="F19">
-        <v>0.3744</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -917,7 +917,7 @@
         <v>204</v>
       </c>
       <c r="F20">
-        <v>0.1251</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -937,7 +937,7 @@
         <v>247</v>
       </c>
       <c r="F21">
-        <v>0.1315</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -957,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="F22">
-        <v>0.0522</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.015</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0404</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1017,7 +1017,7 @@
         <v>894</v>
       </c>
       <c r="F25">
-        <v>0.2091</v>
+        <v>0.2119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.0173</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1057,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="F27">
-        <v>0.0521</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.0094</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0183</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1117,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>0.0346</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.0278</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1157,7 +1157,7 @@
         <v>2294</v>
       </c>
       <c r="F32">
-        <v>1.6694</v>
+        <v>1.6956</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1177,7 +1177,7 @@
         <v>718</v>
       </c>
       <c r="F33">
-        <v>0.3251</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1197,7 +1197,7 @@
         <v>869</v>
       </c>
       <c r="F34">
-        <v>0.4359</v>
+        <v>0.4568</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1217,7 +1217,7 @@
         <v>1546</v>
       </c>
       <c r="F35">
-        <v>1.0843</v>
+        <v>1.1554</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1237,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="F36">
-        <v>0.0996</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1257,7 +1257,7 @@
         <v>1322</v>
       </c>
       <c r="F37">
-        <v>1.2429</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1277,7 +1277,7 @@
         <v>650</v>
       </c>
       <c r="F38">
-        <v>1.0693</v>
+        <v>1.2251</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1297,7 +1297,7 @@
         <v>388</v>
       </c>
       <c r="F39">
-        <v>0.2291</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1317,7 +1317,7 @@
         <v>595</v>
       </c>
       <c r="F40">
-        <v>0.7367</v>
+        <v>0.7504</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.125</v>
+        <v>0.1298</v>
       </c>
     </row>
   </sheetData>
